--- a/public/data/events-filtered.xlsx
+++ b/public/data/events-filtered.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="272">
   <si>
     <t>car</t>
   </si>
@@ -796,6 +796,45 @@
   </si>
   <si>
     <t>1424101880</t>
+  </si>
+  <si>
+    <t>voiture</t>
+  </si>
+  <si>
+    <t>tronçonneuse</t>
+  </si>
+  <si>
+    <t>moto</t>
+  </si>
+  <si>
+    <t>camion</t>
+  </si>
+  <si>
+    <t>type_french</t>
+  </si>
+  <si>
+    <t>weekday_french</t>
+  </si>
+  <si>
+    <t>lundi</t>
+  </si>
+  <si>
+    <t>samedi</t>
+  </si>
+  <si>
+    <t>mardi</t>
+  </si>
+  <si>
+    <t>jeudi</t>
+  </si>
+  <si>
+    <t>mercredi</t>
+  </si>
+  <si>
+    <t>dimanche</t>
+  </si>
+  <si>
+    <t>vendredi</t>
   </si>
 </sst>
 </file>
@@ -844,8 +883,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -861,17 +906,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1201,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1215,12 +1266,14 @@
     <col min="4" max="4" width="17.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="1"/>
     <col min="6" max="6" width="26.83203125" style="1" customWidth="1"/>
-    <col min="7" max="10" width="10.83203125" style="1"/>
+    <col min="7" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="14.1640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.83203125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="1"/>
+    <col min="12" max="12" width="16.6640625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>161</v>
       </c>
@@ -1254,8 +1307,14 @@
       <c r="K1" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1289,8 +1348,14 @@
       <c r="K2" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1324,8 +1389,14 @@
       <c r="K3" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1359,8 +1430,14 @@
       <c r="K4" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1394,8 +1471,14 @@
       <c r="K5" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1429,8 +1512,14 @@
       <c r="K6" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1464,8 +1553,14 @@
       <c r="K7" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1499,8 +1594,14 @@
       <c r="K8" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1534,8 +1635,14 @@
       <c r="K9" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1569,8 +1676,14 @@
       <c r="K10" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1604,8 +1717,14 @@
       <c r="K11" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1639,8 +1758,14 @@
       <c r="K12" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1674,8 +1799,14 @@
       <c r="K13" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1709,8 +1840,14 @@
       <c r="K14" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1744,8 +1881,14 @@
       <c r="K15" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1779,8 +1922,14 @@
       <c r="K16" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1814,8 +1963,14 @@
       <c r="K17" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1849,8 +2004,14 @@
       <c r="K18" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -1884,8 +2045,14 @@
       <c r="K19" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1919,8 +2086,14 @@
       <c r="K20" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1954,8 +2127,14 @@
       <c r="K21" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -1989,8 +2168,14 @@
       <c r="K22" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -2024,8 +2209,14 @@
       <c r="K23" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -2059,8 +2250,14 @@
       <c r="K24" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -2094,8 +2291,14 @@
       <c r="K25" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -2129,8 +2332,14 @@
       <c r="K26" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2164,8 +2373,14 @@
       <c r="K27" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2199,8 +2414,14 @@
       <c r="K28" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
@@ -2234,8 +2455,14 @@
       <c r="K29" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
@@ -2269,8 +2496,14 @@
       <c r="K30" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
@@ -2304,8 +2537,14 @@
       <c r="K31" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
         <v>22</v>
       </c>
@@ -2339,8 +2578,14 @@
       <c r="K32" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
         <v>22</v>
       </c>
@@ -2374,8 +2619,14 @@
       <c r="K33" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
         <v>22</v>
       </c>
@@ -2409,8 +2660,14 @@
       <c r="K34" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
         <v>22</v>
       </c>
@@ -2444,8 +2701,14 @@
       <c r="K35" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
@@ -2479,8 +2742,14 @@
       <c r="K36" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
         <v>22</v>
       </c>
@@ -2514,8 +2783,14 @@
       <c r="K37" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
@@ -2549,8 +2824,14 @@
       <c r="K38" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="L38" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
@@ -2584,8 +2865,14 @@
       <c r="K39" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="L39" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
@@ -2619,8 +2906,14 @@
       <c r="K40" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="L40" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2654,8 +2947,14 @@
       <c r="K41" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="L41" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2689,8 +2988,14 @@
       <c r="K42" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="L42" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
         <v>34</v>
       </c>
@@ -2724,8 +3029,14 @@
       <c r="K43" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="L43" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
@@ -2759,8 +3070,14 @@
       <c r="K44" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="L44" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
         <v>34</v>
       </c>
@@ -2794,8 +3111,14 @@
       <c r="K45" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="L45" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
         <v>34</v>
       </c>
@@ -2829,8 +3152,14 @@
       <c r="K46" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="L46" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
         <v>34</v>
       </c>
@@ -2864,8 +3193,14 @@
       <c r="K47" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="L47" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
         <v>34</v>
       </c>
@@ -2899,8 +3234,14 @@
       <c r="K48" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="L48" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
         <v>34</v>
       </c>
@@ -2934,8 +3275,14 @@
       <c r="K49" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="L49" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
         <v>34</v>
       </c>
@@ -2969,8 +3316,14 @@
       <c r="K50" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="L50" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
         <v>34</v>
       </c>
@@ -3004,8 +3357,14 @@
       <c r="K51" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="L51" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
@@ -3039,8 +3398,14 @@
       <c r="K52" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="L52" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
         <v>34</v>
       </c>
@@ -3074,8 +3439,14 @@
       <c r="K53" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="L53" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
         <v>34</v>
       </c>
@@ -3109,8 +3480,14 @@
       <c r="K54" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="L54" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
         <v>34</v>
       </c>
@@ -3144,8 +3521,14 @@
       <c r="K55" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="L55" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
         <v>34</v>
       </c>
@@ -3179,8 +3562,14 @@
       <c r="K56" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="L56" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
         <v>34</v>
       </c>
@@ -3214,8 +3603,14 @@
       <c r="K57" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="L57" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
         <v>34</v>
       </c>
@@ -3249,8 +3644,14 @@
       <c r="K58" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="L58" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
         <v>34</v>
       </c>
@@ -3284,8 +3685,14 @@
       <c r="K59" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="L59" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
         <v>34</v>
       </c>
@@ -3319,8 +3726,14 @@
       <c r="K60" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="L60" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
         <v>34</v>
       </c>
@@ -3354,8 +3767,14 @@
       <c r="K61" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="L61" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
         <v>34</v>
       </c>
@@ -3389,8 +3808,14 @@
       <c r="K62" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="L62" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
         <v>34</v>
       </c>
@@ -3424,8 +3849,14 @@
       <c r="K63" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="L63" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
         <v>34</v>
       </c>
@@ -3459,8 +3890,14 @@
       <c r="K64" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="L64" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
         <v>34</v>
       </c>
@@ -3494,8 +3931,14 @@
       <c r="K65" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="L65" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
         <v>34</v>
       </c>
@@ -3529,8 +3972,14 @@
       <c r="K66" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="L66" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
         <v>34</v>
       </c>
@@ -3564,8 +4013,14 @@
       <c r="K67" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="L67" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
         <v>34</v>
       </c>
@@ -3599,8 +4054,14 @@
       <c r="K68" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="L68" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
         <v>34</v>
       </c>
@@ -3634,8 +4095,14 @@
       <c r="K69" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="L69" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
         <v>34</v>
       </c>
@@ -3669,8 +4136,14 @@
       <c r="K70" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="L70" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
         <v>34</v>
       </c>
@@ -3704,8 +4177,14 @@
       <c r="K71" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="L71" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
         <v>34</v>
       </c>
@@ -3739,8 +4218,14 @@
       <c r="K72" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="L72" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
         <v>34</v>
       </c>
@@ -3774,8 +4259,14 @@
       <c r="K73" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="L73" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
         <v>34</v>
       </c>
@@ -3809,8 +4300,14 @@
       <c r="K74" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="L74" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
         <v>34</v>
       </c>
@@ -3844,8 +4341,14 @@
       <c r="K75" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="L75" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
         <v>34</v>
       </c>
@@ -3879,8 +4382,14 @@
       <c r="K76" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="L76" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
         <v>34</v>
       </c>
@@ -3914,8 +4423,14 @@
       <c r="K77" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="L77" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
         <v>34</v>
       </c>
@@ -3949,8 +4464,14 @@
       <c r="K78" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="L78" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
         <v>34</v>
       </c>
@@ -3984,8 +4505,14 @@
       <c r="K79" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="L79" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
         <v>34</v>
       </c>
@@ -4019,8 +4546,14 @@
       <c r="K80" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="L80" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
         <v>34</v>
       </c>
@@ -4053,6 +4586,12 @@
       </c>
       <c r="K81" s="1" t="s">
         <v>258</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
